--- a/res/登录.xlsx
+++ b/res/登录.xlsx
@@ -1,25 +1,74 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7125"/>
+    <workbookView windowWidth="20400" windowHeight="8370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>步骤描述</t>
+  </si>
+  <si>
+    <t>方法</t>
+  </si>
+  <si>
+    <t>查找形式</t>
+  </si>
+  <si>
+    <t>关键字</t>
+  </si>
+  <si>
+    <t>动作</t>
+  </si>
+  <si>
+    <t>值</t>
+  </si>
+  <si>
+    <t>获取网址</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>http://221.239.122.19:8088/</t>
+  </si>
+  <si>
+    <t>等待10秒</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>输入公司码</t>
+  </si>
+  <si>
+    <t>find_element</t>
+  </si>
   <si>
     <t>servicecodename</t>
   </si>
   <si>
+    <t>send_keys</t>
+  </si>
+  <si>
     <t>newobt</t>
   </si>
   <si>
@@ -32,184 +81,79 @@
     <t>userpwd_c</t>
   </si>
   <si>
+    <t>111111</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>checkCode</t>
   </si>
   <si>
     <t>citsky20150602</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>步骤描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>submit</t>
   </si>
   <si>
     <t>class name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>click</t>
   </si>
   <si>
     <t>css selector</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switch_to_default_content</t>
   </si>
   <si>
     <t>link text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switch_to_frame</t>
   </si>
   <si>
     <t>partial link text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tag name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>xpath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>send_keys</t>
-  </si>
-  <si>
-    <t>send_keys</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>click</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>submit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关键字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>switch_to_default_content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>switch_to_frame</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>find_element</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查找形式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>111111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://221.239.122.19:8088/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sleep</t>
-  </si>
-  <si>
-    <t>sleep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等待10秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取网址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入公司码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>find_element</t>
-  </si>
-  <si>
-    <t>submit</t>
-  </si>
-  <si>
-    <t>submit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color indexed="12"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -229,34 +173,48 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="7">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -298,74 +256,74 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Cans" typeface="Euphemia"/>
         <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
         <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -498,8 +456,8 @@
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
+                <a:satMod val="350000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
@@ -535,313 +493,409 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="_h" fmla="val 21600"/>
+            <a:gd name="_w" fmla="val 21600"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:pathLst>
+            <a:path w="21600" h="21600"/>
+          </a:pathLst>
+        </a:custGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr/>
+      <a:lstStyle/>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E$1:E$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="17.25" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
     <col min="7" max="7" width="33.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6">
       <c r="C8" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
+      <formula1>Sheet2!$B:$B</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F$1:F$1048576">
+      <formula1>Sheet2!$C:$C</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D1048576 E1:E3">
+      <formula1>Sheet2!$A:$A</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G2" r:id="rId1" display="http://221.239.122.19:8088/"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$A:$A</xm:f>
-          </x14:formula1>
-          <xm:sqref>E1:E3 D4:D1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$C:$C</xm:f>
-          </x14:formula1>
-          <xm:sqref>F1:F1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B:$B</xm:f>
-          </x14:formula1>
-          <xm:sqref>C1:C1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="28.25" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="17.25" customWidth="1"/>
+    <col min="2" max="2" width="33.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>